--- a/data_processed/20250714/BTCUSDVOLSURFACE_20250714.xlsx
+++ b/data_processed/20250714/BTCUSDVOLSURFACE_20250714.xlsx
@@ -582,7 +582,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -12252,7 +12252,7 @@
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12310,7 +12310,7 @@
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12397,7 +12397,7 @@
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12484,7 +12484,7 @@
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12513,7 +12513,7 @@
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12542,7 +12542,7 @@
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -12571,7 +12571,7 @@
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12600,7 +12600,7 @@
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -12629,7 +12629,7 @@
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12658,7 +12658,7 @@
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -12687,7 +12687,7 @@
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -12774,7 +12774,7 @@
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -12803,7 +12803,7 @@
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12832,7 +12832,7 @@
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12861,7 +12861,7 @@
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -12890,7 +12890,7 @@
       </c>
       <c r="G441" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -12977,7 +12977,7 @@
       </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -13006,7 +13006,7 @@
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -13035,7 +13035,7 @@
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -13064,7 +13064,7 @@
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -13093,7 +13093,7 @@
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -13122,7 +13122,7 @@
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -13151,7 +13151,7 @@
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -13180,7 +13180,7 @@
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -13209,7 +13209,7 @@
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -13267,7 +13267,7 @@
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -13296,7 +13296,7 @@
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -13325,7 +13325,7 @@
       </c>
       <c r="G456" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -13354,7 +13354,7 @@
       </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -13383,7 +13383,7 @@
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -13412,7 +13412,7 @@
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -13441,7 +13441,7 @@
       </c>
       <c r="G460" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -13470,7 +13470,7 @@
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -13499,7 +13499,7 @@
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -13528,7 +13528,7 @@
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -19700,7 +19700,7 @@
       </c>
       <c r="G695" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -19870,7 +19870,7 @@
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250714/BTCUSDVOLSURFACE_20250714.xlsx
+++ b/data_processed/20250714/BTCUSDVOLSURFACE_20250714.xlsx
@@ -582,7 +582,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -9562,7 +9562,7 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -9616,7 +9616,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -9670,7 +9670,7 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -9753,7 +9753,7 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -12252,7 +12252,7 @@
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12310,7 +12310,7 @@
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12397,7 +12397,7 @@
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12484,7 +12484,7 @@
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12513,7 +12513,7 @@
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12542,7 +12542,7 @@
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -12571,7 +12571,7 @@
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12600,7 +12600,7 @@
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -12629,7 +12629,7 @@
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12658,7 +12658,7 @@
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -12687,7 +12687,7 @@
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -12774,7 +12774,7 @@
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -12803,7 +12803,7 @@
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12832,7 +12832,7 @@
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12861,7 +12861,7 @@
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -12890,7 +12890,7 @@
       </c>
       <c r="G441" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -12977,7 +12977,7 @@
       </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -13006,7 +13006,7 @@
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -13035,7 +13035,7 @@
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -13064,7 +13064,7 @@
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -13093,7 +13093,7 @@
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -13122,7 +13122,7 @@
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -13151,7 +13151,7 @@
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -13180,7 +13180,7 @@
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -13209,7 +13209,7 @@
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -13267,7 +13267,7 @@
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -13296,7 +13296,7 @@
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -13325,7 +13325,7 @@
       </c>
       <c r="G456" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -13354,7 +13354,7 @@
       </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -13383,7 +13383,7 @@
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -13412,7 +13412,7 @@
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -13441,7 +13441,7 @@
       </c>
       <c r="G460" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -13470,7 +13470,7 @@
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -13499,7 +13499,7 @@
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -13528,7 +13528,7 @@
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -13748,7 +13748,7 @@
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -13806,7 +13806,7 @@
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -13889,7 +13889,7 @@
       </c>
       <c r="G476" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -13947,7 +13947,7 @@
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14279,7 +14279,7 @@
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14420,7 +14420,7 @@
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14478,7 +14478,7 @@
       </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14619,7 +14619,7 @@
       </c>
       <c r="G502" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14673,7 +14673,7 @@
       </c>
       <c r="G504" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14756,7 +14756,7 @@
       </c>
       <c r="G507" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14814,7 +14814,7 @@
       </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14897,7 +14897,7 @@
       </c>
       <c r="G512" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -19700,7 +19700,7 @@
       </c>
       <c r="G695" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -19870,7 +19870,7 @@
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -20513,7 +20513,7 @@
       </c>
       <c r="G724" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -20596,7 +20596,7 @@
       </c>
       <c r="G727" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -20683,7 +20683,7 @@
       </c>
       <c r="G730" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -20766,7 +20766,7 @@
       </c>
       <c r="G733" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -20853,7 +20853,7 @@
       </c>
       <c r="G736" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -21052,7 +21052,7 @@
       </c>
       <c r="G743" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -36322,7 +36322,7 @@
       </c>
       <c r="G1329" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -51581,7 +51581,7 @@
       </c>
       <c r="G1912" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -51639,7 +51639,7 @@
       </c>
       <c r="G1914" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -51693,7 +51693,7 @@
       </c>
       <c r="G1916" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -51751,7 +51751,7 @@
       </c>
       <c r="G1918" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -51805,7 +51805,7 @@
       </c>
       <c r="G1920" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -51888,7 +51888,7 @@
       </c>
       <c r="G1923" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -52000,7 +52000,7 @@
       </c>
       <c r="G1927" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
